--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anudeep/Documents/mylearnings/cypress-test/cypress-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D8678C-34A0-454A-8D23-0C716D61FF7B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E7A432-FB49-8547-B770-1208F1998C6F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15820" xr2:uid="{7A0B4472-693D-014C-BD5F-06D6A4DA1BB5}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
-  <si>
-    <t>SNO.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Test case</t>
   </si>
@@ -239,15 +236,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -255,17 +258,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,279 +605,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C367EB-7B17-404B-8DB5-7758D630B6A3}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" customWidth="1"/>
-    <col min="5" max="5" width="45.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
